--- a/data/products_list.xlsx
+++ b/data/products_list.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>103</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">

--- a/data/products_list.xlsx
+++ b/data/products_list.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
